--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efna4-Epha1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efna4-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Epha1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7987937302293729</v>
+        <v>0.8339443333333333</v>
       </c>
       <c r="H2">
-        <v>0.7987937302293729</v>
+        <v>2.501833</v>
       </c>
       <c r="I2">
-        <v>0.3048468048969719</v>
+        <v>0.305203232930382</v>
       </c>
       <c r="J2">
-        <v>0.3048468048969719</v>
+        <v>0.3052032329303821</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.41113526211531</v>
+        <v>3.746298666666667</v>
       </c>
       <c r="N2">
-        <v>3.41113526211531</v>
+        <v>11.238896</v>
       </c>
       <c r="O2">
-        <v>0.2952197429036704</v>
+        <v>0.2944715732214049</v>
       </c>
       <c r="P2">
-        <v>0.2952197429036704</v>
+        <v>0.294471573221405</v>
       </c>
       <c r="Q2">
-        <v>2.724793460342038</v>
+        <v>3.124204544040889</v>
       </c>
       <c r="R2">
-        <v>2.724793460342038</v>
+        <v>28.117840896368</v>
       </c>
       <c r="S2">
-        <v>0.08999679536668941</v>
+        <v>0.08987367615326849</v>
       </c>
       <c r="T2">
-        <v>0.08999679536668941</v>
+        <v>0.08987367615326854</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7987937302293729</v>
+        <v>0.8339443333333333</v>
       </c>
       <c r="H3">
-        <v>0.7987937302293729</v>
+        <v>2.501833</v>
       </c>
       <c r="I3">
-        <v>0.3048468048969719</v>
+        <v>0.305203232930382</v>
       </c>
       <c r="J3">
-        <v>0.3048468048969719</v>
+        <v>0.3052032329303821</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.17423146913973</v>
+        <v>4.370261666666667</v>
       </c>
       <c r="N3">
-        <v>4.17423146913973</v>
+        <v>13.110785</v>
       </c>
       <c r="O3">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="P3">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="Q3">
-        <v>3.334349926074961</v>
+        <v>3.644554952100556</v>
       </c>
       <c r="R3">
-        <v>3.334349926074961</v>
+        <v>32.800994568905</v>
       </c>
       <c r="S3">
-        <v>0.1101297446376855</v>
+        <v>0.1048425437164941</v>
       </c>
       <c r="T3">
-        <v>0.1101297446376855</v>
+        <v>0.1048425437164941</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7987937302293729</v>
+        <v>0.8339443333333333</v>
       </c>
       <c r="H4">
-        <v>0.7987937302293729</v>
+        <v>2.501833</v>
       </c>
       <c r="I4">
-        <v>0.3048468048969719</v>
+        <v>0.305203232930382</v>
       </c>
       <c r="J4">
-        <v>0.3048468048969719</v>
+        <v>0.3052032329303821</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.52965820709338</v>
+        <v>1.837969333333333</v>
       </c>
       <c r="N4">
-        <v>1.52965820709338</v>
+        <v>5.513908</v>
       </c>
       <c r="O4">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="P4">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="Q4">
-        <v>1.221881385220096</v>
+        <v>1.532764110373778</v>
       </c>
       <c r="R4">
-        <v>1.221881385220096</v>
+        <v>13.794876993364</v>
       </c>
       <c r="S4">
-        <v>0.04035733738667157</v>
+        <v>0.04409287014764764</v>
       </c>
       <c r="T4">
-        <v>0.04035733738667157</v>
+        <v>0.04409287014764765</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7987937302293729</v>
+        <v>0.8339443333333333</v>
       </c>
       <c r="H5">
-        <v>0.7987937302293729</v>
+        <v>2.501833</v>
       </c>
       <c r="I5">
-        <v>0.3048468048969719</v>
+        <v>0.305203232930382</v>
       </c>
       <c r="J5">
-        <v>0.3048468048969719</v>
+        <v>0.3052032329303821</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.43953854905478</v>
+        <v>2.767576666666667</v>
       </c>
       <c r="N5">
-        <v>2.43953854905478</v>
+        <v>8.30273</v>
       </c>
       <c r="O5">
-        <v>0.2111320390176893</v>
+        <v>0.2175407589083977</v>
       </c>
       <c r="P5">
-        <v>0.2111320390176893</v>
+        <v>0.2175407589083977</v>
       </c>
       <c r="Q5">
-        <v>1.94868809763782</v>
+        <v>2.308004878232222</v>
       </c>
       <c r="R5">
-        <v>1.94868809763782</v>
+        <v>20.77204390409</v>
       </c>
       <c r="S5">
-        <v>0.06436292750592537</v>
+        <v>0.0663941429129718</v>
       </c>
       <c r="T5">
-        <v>0.06436292750592537</v>
+        <v>0.06639414291297181</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.52291103668574</v>
+        <v>1.537538333333333</v>
       </c>
       <c r="H6">
-        <v>1.52291103668574</v>
+        <v>4.612615</v>
       </c>
       <c r="I6">
-        <v>0.5811945513676886</v>
+        <v>0.5627014314157557</v>
       </c>
       <c r="J6">
-        <v>0.5811945513676886</v>
+        <v>0.5627014314157558</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.41113526211531</v>
+        <v>3.746298666666667</v>
       </c>
       <c r="N6">
-        <v>3.41113526211531</v>
+        <v>11.238896</v>
       </c>
       <c r="O6">
-        <v>0.2952197429036704</v>
+        <v>0.2944715732214049</v>
       </c>
       <c r="P6">
-        <v>0.2952197429036704</v>
+        <v>0.294471573221405</v>
       </c>
       <c r="Q6">
-        <v>5.19485553830331</v>
+        <v>5.760077808115555</v>
       </c>
       <c r="R6">
-        <v>5.19485553830331</v>
+        <v>51.84070027304</v>
       </c>
       <c r="S6">
-        <v>0.1715801060317831</v>
+        <v>0.1656995757629341</v>
       </c>
       <c r="T6">
-        <v>0.1715801060317831</v>
+        <v>0.1656995757629341</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.52291103668574</v>
+        <v>1.537538333333333</v>
       </c>
       <c r="H7">
-        <v>1.52291103668574</v>
+        <v>4.612615</v>
       </c>
       <c r="I7">
-        <v>0.5811945513676886</v>
+        <v>0.5627014314157557</v>
       </c>
       <c r="J7">
-        <v>0.5811945513676886</v>
+        <v>0.5627014314157558</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.17423146913973</v>
+        <v>4.370261666666667</v>
       </c>
       <c r="N7">
-        <v>4.17423146913973</v>
+        <v>13.110785</v>
       </c>
       <c r="O7">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="P7">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="Q7">
-        <v>6.356983174033826</v>
+        <v>6.719444839197222</v>
       </c>
       <c r="R7">
-        <v>6.356983174033826</v>
+        <v>60.475003552775</v>
       </c>
       <c r="S7">
-        <v>0.2099638457702384</v>
+        <v>0.1932975901208659</v>
       </c>
       <c r="T7">
-        <v>0.2099638457702384</v>
+        <v>0.193297590120866</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.52291103668574</v>
+        <v>1.537538333333333</v>
       </c>
       <c r="H8">
-        <v>1.52291103668574</v>
+        <v>4.612615</v>
       </c>
       <c r="I8">
-        <v>0.5811945513676886</v>
+        <v>0.5627014314157557</v>
       </c>
       <c r="J8">
-        <v>0.5811945513676886</v>
+        <v>0.5627014314157558</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.52965820709338</v>
+        <v>1.837969333333333</v>
       </c>
       <c r="N8">
-        <v>1.52965820709338</v>
+        <v>5.513908</v>
       </c>
       <c r="O8">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="P8">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="Q8">
-        <v>2.32953336593943</v>
+        <v>2.825948305491111</v>
       </c>
       <c r="R8">
-        <v>2.32953336593943</v>
+        <v>25.43353474942</v>
       </c>
       <c r="S8">
-        <v>0.07694180886943591</v>
+        <v>0.08129376910293043</v>
       </c>
       <c r="T8">
-        <v>0.07694180886943591</v>
+        <v>0.08129376910293044</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.52291103668574</v>
+        <v>1.537538333333333</v>
       </c>
       <c r="H9">
-        <v>1.52291103668574</v>
+        <v>4.612615</v>
       </c>
       <c r="I9">
-        <v>0.5811945513676886</v>
+        <v>0.5627014314157557</v>
       </c>
       <c r="J9">
-        <v>0.5811945513676886</v>
+        <v>0.5627014314157558</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.43953854905478</v>
+        <v>2.767576666666667</v>
       </c>
       <c r="N9">
-        <v>2.43953854905478</v>
+        <v>8.30273</v>
       </c>
       <c r="O9">
-        <v>0.2111320390176893</v>
+        <v>0.2175407589083977</v>
       </c>
       <c r="P9">
-        <v>0.2111320390176893</v>
+        <v>0.2175407589083977</v>
       </c>
       <c r="Q9">
-        <v>3.715200180775841</v>
+        <v>4.255255215438889</v>
       </c>
       <c r="R9">
-        <v>3.715200180775841</v>
+        <v>38.29729693895</v>
       </c>
       <c r="S9">
-        <v>0.1227087906962312</v>
+        <v>0.1224104964290252</v>
       </c>
       <c r="T9">
-        <v>0.1227087906962312</v>
+        <v>0.1224104964290252</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.298607197644722</v>
+        <v>0.03989166666666667</v>
       </c>
       <c r="H10">
-        <v>0.298607197644722</v>
+        <v>0.119675</v>
       </c>
       <c r="I10">
-        <v>0.1139586437353396</v>
+        <v>0.01459937449899473</v>
       </c>
       <c r="J10">
-        <v>0.1139586437353396</v>
+        <v>0.01459937449899473</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.41113526211531</v>
+        <v>3.746298666666667</v>
       </c>
       <c r="N10">
-        <v>3.41113526211531</v>
+        <v>11.238896</v>
       </c>
       <c r="O10">
-        <v>0.2952197429036704</v>
+        <v>0.2944715732214049</v>
       </c>
       <c r="P10">
-        <v>0.2952197429036704</v>
+        <v>0.294471573221405</v>
       </c>
       <c r="Q10">
-        <v>1.018589541407347</v>
+        <v>0.1494460976444444</v>
       </c>
       <c r="R10">
-        <v>1.018589541407347</v>
+        <v>1.3450148788</v>
       </c>
       <c r="S10">
-        <v>0.03364284150519792</v>
+        <v>0.004299100776767438</v>
       </c>
       <c r="T10">
-        <v>0.03364284150519792</v>
+        <v>0.00429910077676744</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.298607197644722</v>
+        <v>0.03989166666666667</v>
       </c>
       <c r="H11">
-        <v>0.298607197644722</v>
+        <v>0.119675</v>
       </c>
       <c r="I11">
-        <v>0.1139586437353396</v>
+        <v>0.01459937449899473</v>
       </c>
       <c r="J11">
-        <v>0.1139586437353396</v>
+        <v>0.01459937449899473</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.17423146913973</v>
+        <v>4.370261666666667</v>
       </c>
       <c r="N11">
-        <v>4.17423146913973</v>
+        <v>13.110785</v>
       </c>
       <c r="O11">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="P11">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="Q11">
-        <v>1.246455561320226</v>
+        <v>0.1743370216527778</v>
       </c>
       <c r="R11">
-        <v>1.246455561320226</v>
+        <v>1.569033194875</v>
       </c>
       <c r="S11">
-        <v>0.04116899417092955</v>
+        <v>0.005015135470381689</v>
       </c>
       <c r="T11">
-        <v>0.04116899417092955</v>
+        <v>0.005015135470381689</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.298607197644722</v>
+        <v>0.03989166666666667</v>
       </c>
       <c r="H12">
-        <v>0.298607197644722</v>
+        <v>0.119675</v>
       </c>
       <c r="I12">
-        <v>0.1139586437353396</v>
+        <v>0.01459937449899473</v>
       </c>
       <c r="J12">
-        <v>0.1139586437353396</v>
+        <v>0.01459937449899473</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.52965820709338</v>
+        <v>1.837969333333333</v>
       </c>
       <c r="N12">
-        <v>1.52965820709338</v>
+        <v>5.513908</v>
       </c>
       <c r="O12">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="P12">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="Q12">
-        <v>0.456766950574404</v>
+        <v>0.07331965998888888</v>
       </c>
       <c r="R12">
-        <v>0.456766950574404</v>
+        <v>0.6598769399</v>
       </c>
       <c r="S12">
-        <v>0.01508648724367946</v>
+        <v>0.002109179243746378</v>
       </c>
       <c r="T12">
-        <v>0.01508648724367946</v>
+        <v>0.002109179243746378</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.119675</v>
+      </c>
+      <c r="I13">
+        <v>0.01459937449899473</v>
+      </c>
+      <c r="J13">
+        <v>0.01459937449899473</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.767576666666667</v>
+      </c>
+      <c r="N13">
+        <v>8.30273</v>
+      </c>
+      <c r="O13">
+        <v>0.2175407589083977</v>
+      </c>
+      <c r="P13">
+        <v>0.2175407589083977</v>
+      </c>
+      <c r="Q13">
+        <v>0.1104032458611111</v>
+      </c>
+      <c r="R13">
+        <v>0.99362921275</v>
+      </c>
+      <c r="S13">
+        <v>0.003175959008099222</v>
+      </c>
+      <c r="T13">
+        <v>0.003175959008099223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3210486666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.9631460000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="J14">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.746298666666667</v>
+      </c>
+      <c r="N14">
+        <v>11.238896</v>
+      </c>
+      <c r="O14">
+        <v>0.2944715732214049</v>
+      </c>
+      <c r="P14">
+        <v>0.294471573221405</v>
+      </c>
+      <c r="Q14">
+        <v>1.202744191868445</v>
+      </c>
+      <c r="R14">
+        <v>10.824697726816</v>
+      </c>
+      <c r="S14">
+        <v>0.03459922052843493</v>
+      </c>
+      <c r="T14">
+        <v>0.03459922052843495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3210486666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.9631460000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="J15">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.370261666666667</v>
+      </c>
+      <c r="N15">
+        <v>13.110785</v>
+      </c>
+      <c r="O15">
+        <v>0.3435171466234404</v>
+      </c>
+      <c r="P15">
+        <v>0.3435171466234404</v>
+      </c>
+      <c r="Q15">
+        <v>1.403066681067778</v>
+      </c>
+      <c r="R15">
+        <v>12.62760012961</v>
+      </c>
+      <c r="S15">
+        <v>0.0403618773156987</v>
+      </c>
+      <c r="T15">
+        <v>0.04036187731569871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.298607197644722</v>
-      </c>
-      <c r="H13">
-        <v>0.298607197644722</v>
-      </c>
-      <c r="I13">
-        <v>0.1139586437353396</v>
-      </c>
-      <c r="J13">
-        <v>0.1139586437353396</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.43953854905478</v>
-      </c>
-      <c r="N13">
-        <v>2.43953854905478</v>
-      </c>
-      <c r="O13">
-        <v>0.2111320390176893</v>
-      </c>
-      <c r="P13">
-        <v>0.2111320390176893</v>
-      </c>
-      <c r="Q13">
-        <v>0.728463769679519</v>
-      </c>
-      <c r="R13">
-        <v>0.728463769679519</v>
-      </c>
-      <c r="S13">
-        <v>0.02406032081553267</v>
-      </c>
-      <c r="T13">
-        <v>0.02406032081553267</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3210486666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.9631460000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="J16">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.837969333333333</v>
+      </c>
+      <c r="N16">
+        <v>5.513908</v>
+      </c>
+      <c r="O16">
+        <v>0.1444705212467569</v>
+      </c>
+      <c r="P16">
+        <v>0.1444705212467569</v>
+      </c>
+      <c r="Q16">
+        <v>0.5900776038408889</v>
+      </c>
+      <c r="R16">
+        <v>5.310698434568</v>
+      </c>
+      <c r="S16">
+        <v>0.01697470275243241</v>
+      </c>
+      <c r="T16">
+        <v>0.01697470275243242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3210486666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.9631460000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="J17">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.767576666666667</v>
+      </c>
+      <c r="N17">
+        <v>8.30273</v>
+      </c>
+      <c r="O17">
+        <v>0.2175407589083977</v>
+      </c>
+      <c r="P17">
+        <v>0.2175407589083977</v>
+      </c>
+      <c r="Q17">
+        <v>0.8885267987311113</v>
+      </c>
+      <c r="R17">
+        <v>7.996741188580001</v>
+      </c>
+      <c r="S17">
+        <v>0.02556016055830151</v>
+      </c>
+      <c r="T17">
+        <v>0.02556016055830152</v>
       </c>
     </row>
   </sheetData>
